--- a/data/trans_bre/P36BPD07_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P36BPD07_R-Dificultad-trans_bre.xlsx
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>1.170671013504543</v>
+        <v>-1.17067101350454</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>9.689469913937632</v>
+        <v>-9.689469913937637</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.01443106458143454</v>
+        <v>-0.0620111271567067</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.1631465219245739</v>
+        <v>-0.2386052563228373</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.320731885063943</v>
+        <v>-4.06740960314553</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.166660442650126</v>
+        <v>-16.23200090105301</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.02804485644570674</v>
+        <v>-0.1986359560623895</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.0650190746397457</v>
+        <v>-0.3653578646583222</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.067409603145524</v>
+        <v>2.320731885063944</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.232000901053</v>
+        <v>-4.16666044265014</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.05172821472396055</v>
+        <v>0.1354786524459374</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.2916718703871101</v>
+        <v>-0.1134581030412274</v>
       </c>
     </row>
     <row r="7">
@@ -653,16 +653,16 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>1.949420280801384</v>
+        <v>-1.949420280801387</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>8.078515076281189</v>
+        <v>-8.078515076281207</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.02272225837524401</v>
+        <v>-0.1372195440251275</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.1289941642633269</v>
+        <v>-0.2161590178032679</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.920363041788765</v>
+        <v>-5.18854475085949</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.701547621729538</v>
+        <v>-12.35145905314986</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.01042753599148202</v>
+        <v>-0.3201786505809896</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.05841641475135943</v>
+        <v>-0.3041293608365326</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.18854475085949</v>
+        <v>0.9203630417887564</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.35145905314983</v>
+        <v>-3.701547621729552</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.06256453310069517</v>
+        <v>0.0757737759358755</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2096268756455138</v>
+        <v>-0.09908813789585547</v>
       </c>
     </row>
     <row r="10">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>4.764115304632788</v>
+        <v>-4.764115304632788</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>4.276479203966577</v>
+        <v>-4.276479203966554</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.05498384591864567</v>
+        <v>-0.3567483842830321</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.05881441616691267</v>
+        <v>-0.1567130953579416</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.951653744916038</v>
+        <v>-8.390460487324862</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1899976904063227</v>
+        <v>-8.321494177469367</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.02186972327769488</v>
+        <v>-0.5416099317485727</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.002551848812282596</v>
+        <v>-0.279805405358316</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.390460487324862</v>
+        <v>-1.951653744916038</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.321494177469376</v>
+        <v>-0.1899976904063117</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.0988309599030001</v>
+        <v>-0.1592358393602469</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.1185124394855504</v>
+        <v>-0.00835531951988344</v>
       </c>
     </row>
     <row r="13">
@@ -781,16 +781,16 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>3.005645471361484</v>
+        <v>-3.005645471361486</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>2.640132031188647</v>
+        <v>-2.64013203118866</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.03526295598671596</v>
+        <v>-0.2035684587572631</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.03143778636780884</v>
+        <v>-0.1647979076156363</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.348682331930491</v>
+        <v>-7.533808171081831</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.7748462667763402</v>
+        <v>-6.080699973609108</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.01440879271680849</v>
+        <v>-0.4316999571367726</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.007880917230499667</v>
+        <v>-0.3358793383503667</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.533808171081832</v>
+        <v>1.34868233193049</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.080699973609118</v>
+        <v>0.7748462667763363</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.09179110321912211</v>
+        <v>0.1127961783361569</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.07498817651239721</v>
+        <v>0.06026431211448067</v>
       </c>
     </row>
     <row r="16">
@@ -845,16 +845,16 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>2.315227320022928</v>
+        <v>-2.315227320022934</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>4.929316238095161</v>
+        <v>-4.929316238095149</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>0.0274485171103007</v>
+        <v>-0.1479188752736078</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.06924207809645262</v>
+        <v>-0.1710950634049156</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5233570172515666</v>
+        <v>-3.99318183035624</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.581802273393077</v>
+        <v>-7.079621342556554</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.006131210414247898</v>
+        <v>-0.2385708964253167</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.03582414021917461</v>
+        <v>-0.2344683717407557</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.993181830356237</v>
+        <v>-0.5233570172515726</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.079621342556577</v>
+        <v>-2.581802273393059</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.04796025629803714</v>
+        <v>-0.03658743036585479</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.1015932604275953</v>
+        <v>-0.09329957675878307</v>
       </c>
     </row>
     <row r="19">

--- a/data/trans_bre/P36BPD07_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P36BPD07_R-Dificultad-trans_bre.xlsx
@@ -528,7 +528,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consume menos de una bebida azucarada por día</t>
+          <t>Población que consume al menos una bebida azucarada por día</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P36BPD07_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P36BPD07_R-Dificultad-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>-1.17067101350454</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-9.689469913937637</v>
+        <v>-9.689469913937632</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>-0.0620111271567067</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>-0.2386052563228373</v>
+        <v>-0.2386052563228372</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.06740960314553</v>
+        <v>-4.569210665557697</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-16.23200090105301</v>
+        <v>-15.99515084900938</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.1986359560623895</v>
+        <v>-0.2151557416986001</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.3653578646583222</v>
+        <v>-0.3604740667220758</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.320731885063944</v>
+        <v>2.22363546953057</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-4.16666044265014</v>
+        <v>-3.662140143710353</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.1354786524459374</v>
+        <v>0.1355190116660389</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>-0.1134581030412274</v>
+        <v>-0.09819285467835652</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>-1.949420280801387</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>-8.078515076281207</v>
+        <v>-8.078515076281201</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.1372195440251275</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-0.2161590178032679</v>
+        <v>-0.2161590178032678</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-5.18854475085949</v>
+        <v>-5.050178885686063</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-12.35145905314986</v>
+        <v>-12.67632920029203</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3201786505809896</v>
+        <v>-0.3165316504835646</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3041293608365326</v>
+        <v>-0.3148202940205297</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9203630417887564</v>
+        <v>1.005300623780692</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-3.701547621729552</v>
+        <v>-4.093140127338361</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.0757737759358755</v>
+        <v>0.08028250151829061</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.09908813789585547</v>
+        <v>-0.1176622256798571</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>-4.764115304632788</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-4.276479203966554</v>
+        <v>-4.276479203966549</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>-0.3567483842830321</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>-0.1567130953579416</v>
+        <v>-0.1567130953579414</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.390460487324862</v>
+        <v>-7.912369827344877</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.321494177469367</v>
+        <v>-8.167517891169622</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.5416099317485727</v>
+        <v>-0.5180837098877138</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.279805405358316</v>
+        <v>-0.2781173244647064</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-1.951653744916038</v>
+        <v>-1.759243730990873</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.1899976904063117</v>
+        <v>-0.3128911753570619</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>-0.1592358393602469</v>
+        <v>-0.1331333934932719</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>-0.00835531951988344</v>
+        <v>-0.01383900767198848</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-7.533808171081831</v>
+        <v>-7.57905535809083</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-6.080699973609108</v>
+        <v>-6.412786226599279</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4316999571367726</v>
+        <v>-0.4245626424761058</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3358793383503667</v>
+        <v>-0.353547540807102</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.34868233193049</v>
+        <v>0.8395895281175439</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7748462667763363</v>
+        <v>0.8410284951218738</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1127961783361569</v>
+        <v>0.06953258702847931</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.06026431211448067</v>
+        <v>0.0615417910243863</v>
       </c>
     </row>
     <row r="16">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.99318183035624</v>
+        <v>-4.192729946696515</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.079621342556554</v>
+        <v>-7.153594408516067</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.2385708964253167</v>
+        <v>-0.2461720021699119</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.2344683717407557</v>
+        <v>-0.2403029271456466</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.5233570172515726</v>
+        <v>-0.5823121129579116</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.581802273393059</v>
+        <v>-3.003943396970702</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>-0.03658743036585479</v>
+        <v>-0.03824158405696085</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.09329957675878307</v>
+        <v>-0.109709016509473</v>
       </c>
     </row>
     <row r="19">
